--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03885866666666667</v>
+        <v>0.9253576666666667</v>
       </c>
       <c r="H2">
-        <v>0.116576</v>
+        <v>2.776073</v>
       </c>
       <c r="I2">
-        <v>0.01924839521029073</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.01924839521029073</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.261293</v>
+        <v>1.311698333333333</v>
       </c>
       <c r="N2">
-        <v>0.783879</v>
+        <v>3.935095</v>
       </c>
       <c r="O2">
-        <v>0.04010308082688332</v>
+        <v>0.6472031793931536</v>
       </c>
       <c r="P2">
-        <v>0.04010308082688332</v>
+        <v>0.6472031793931535</v>
       </c>
       <c r="Q2">
-        <v>0.01015349758933333</v>
+        <v>1.213790109103889</v>
       </c>
       <c r="R2">
-        <v>0.09138147830399999</v>
+        <v>10.924110981935</v>
       </c>
       <c r="S2">
-        <v>0.0007719199489060831</v>
+        <v>0.6472031793931536</v>
       </c>
       <c r="T2">
-        <v>0.0007719199489060829</v>
+        <v>0.6472031793931535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03885866666666667</v>
+        <v>0.9253576666666667</v>
       </c>
       <c r="H3">
-        <v>0.116576</v>
+        <v>2.776073</v>
       </c>
       <c r="I3">
-        <v>0.01924839521029073</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.01924839521029073</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,276 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.311698333333333</v>
+        <v>0.7150196666666666</v>
       </c>
       <c r="N3">
-        <v>3.935095</v>
+        <v>2.145059</v>
       </c>
       <c r="O3">
-        <v>0.201318612753326</v>
+        <v>0.3527968206068465</v>
       </c>
       <c r="P3">
-        <v>0.201318612753326</v>
+        <v>0.3527968206068464</v>
       </c>
       <c r="Q3">
-        <v>0.05097084830222223</v>
+        <v>0.6616489303674444</v>
       </c>
       <c r="R3">
-        <v>0.45873763472</v>
+        <v>5.954840373307</v>
       </c>
       <c r="S3">
-        <v>0.003875060221463494</v>
+        <v>0.3527968206068465</v>
       </c>
       <c r="T3">
-        <v>0.003875060221463494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.03885866666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.116576</v>
-      </c>
-      <c r="I4">
-        <v>0.01924839521029073</v>
-      </c>
-      <c r="J4">
-        <v>0.01924839521029073</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>4.942543</v>
-      </c>
-      <c r="N4">
-        <v>14.827629</v>
-      </c>
-      <c r="O4">
-        <v>0.7585783064197906</v>
-      </c>
-      <c r="P4">
-        <v>0.7585783064197906</v>
-      </c>
-      <c r="Q4">
-        <v>0.1920606309226666</v>
-      </c>
-      <c r="R4">
-        <v>1.728545678304</v>
-      </c>
-      <c r="S4">
-        <v>0.01460141503992115</v>
-      </c>
-      <c r="T4">
-        <v>0.01460141503992115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.979941666666667</v>
-      </c>
-      <c r="H5">
-        <v>5.939825</v>
-      </c>
-      <c r="I5">
-        <v>0.9807516047897092</v>
-      </c>
-      <c r="J5">
-        <v>0.9807516047897092</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.261293</v>
-      </c>
-      <c r="N5">
-        <v>0.783879</v>
-      </c>
-      <c r="O5">
-        <v>0.04010308082688332</v>
-      </c>
-      <c r="P5">
-        <v>0.04010308082688332</v>
-      </c>
-      <c r="Q5">
-        <v>0.5173448979083334</v>
-      </c>
-      <c r="R5">
-        <v>4.656104081175</v>
-      </c>
-      <c r="S5">
-        <v>0.03933116087797724</v>
-      </c>
-      <c r="T5">
-        <v>0.03933116087797724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.979941666666667</v>
-      </c>
-      <c r="H6">
-        <v>5.939825</v>
-      </c>
-      <c r="I6">
-        <v>0.9807516047897092</v>
-      </c>
-      <c r="J6">
-        <v>0.9807516047897092</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.311698333333333</v>
-      </c>
-      <c r="N6">
-        <v>3.935095</v>
-      </c>
-      <c r="O6">
-        <v>0.201318612753326</v>
-      </c>
-      <c r="P6">
-        <v>0.201318612753326</v>
-      </c>
-      <c r="Q6">
-        <v>2.597086184263889</v>
-      </c>
-      <c r="R6">
-        <v>23.373775658375</v>
-      </c>
-      <c r="S6">
-        <v>0.1974435525318625</v>
-      </c>
-      <c r="T6">
-        <v>0.1974435525318625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.979941666666667</v>
-      </c>
-      <c r="H7">
-        <v>5.939825</v>
-      </c>
-      <c r="I7">
-        <v>0.9807516047897092</v>
-      </c>
-      <c r="J7">
-        <v>0.9807516047897092</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.942543</v>
-      </c>
-      <c r="N7">
-        <v>14.827629</v>
-      </c>
-      <c r="O7">
-        <v>0.7585783064197906</v>
-      </c>
-      <c r="P7">
-        <v>0.7585783064197906</v>
-      </c>
-      <c r="Q7">
-        <v>9.785946824991667</v>
-      </c>
-      <c r="R7">
-        <v>88.073521424925</v>
-      </c>
-      <c r="S7">
-        <v>0.7439768913798694</v>
-      </c>
-      <c r="T7">
-        <v>0.7439768913798694</v>
+        <v>0.3527968206068464</v>
       </c>
     </row>
   </sheetData>
